--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vcan-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vcan-Cd44.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.529781</v>
+        <v>0.2364713333333333</v>
       </c>
       <c r="H2">
-        <v>4.589343</v>
+        <v>0.709414</v>
       </c>
       <c r="I2">
-        <v>0.01315047351877542</v>
+        <v>0.002249544876489787</v>
       </c>
       <c r="J2">
-        <v>0.01315047351877542</v>
+        <v>0.002249544876489787</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>261.380203</v>
+        <v>7.487621999999999</v>
       </c>
       <c r="N2">
-        <v>784.140609</v>
+        <v>22.462866</v>
       </c>
       <c r="O2">
-        <v>0.6968677182772199</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="P2">
-        <v>0.69686771827722</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="Q2">
-        <v>399.8544683255429</v>
+        <v>1.770607957836</v>
       </c>
       <c r="R2">
-        <v>3598.690214929887</v>
+        <v>15.935471620524</v>
       </c>
       <c r="S2">
-        <v>0.009164140475294031</v>
+        <v>0.0003114259082482917</v>
       </c>
       <c r="T2">
-        <v>0.009164140475294033</v>
+        <v>0.0003114259082482917</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.529781</v>
+        <v>0.2364713333333333</v>
       </c>
       <c r="H3">
-        <v>4.589343</v>
+        <v>0.709414</v>
       </c>
       <c r="I3">
-        <v>0.01315047351877542</v>
+        <v>0.002249544876489787</v>
       </c>
       <c r="J3">
-        <v>0.01315047351877542</v>
+        <v>0.002249544876489787</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>95.998284</v>
       </c>
       <c r="O3">
-        <v>0.08531391482826334</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="P3">
-        <v>0.08531391482826335</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="Q3">
-        <v>48.95211696526799</v>
+        <v>7.566947405064</v>
       </c>
       <c r="R3">
-        <v>440.569052687412</v>
+        <v>68.10252664557599</v>
       </c>
       <c r="S3">
-        <v>0.001121918377732139</v>
+        <v>0.001330923346334232</v>
       </c>
       <c r="T3">
-        <v>0.001121918377732139</v>
+        <v>0.001330923346334232</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.529781</v>
+        <v>0.2364713333333333</v>
       </c>
       <c r="H4">
-        <v>4.589343</v>
+        <v>0.709414</v>
       </c>
       <c r="I4">
-        <v>0.01315047351877542</v>
+        <v>0.002249544876489787</v>
       </c>
       <c r="J4">
-        <v>0.01315047351877542</v>
+        <v>0.002249544876489787</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>81.69901900000001</v>
+        <v>14.59882166666667</v>
       </c>
       <c r="N4">
-        <v>245.097057</v>
+        <v>43.796465</v>
       </c>
       <c r="O4">
-        <v>0.2178183668945166</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="P4">
-        <v>0.2178183668945167</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="Q4">
-        <v>124.981606984839</v>
+        <v>3.452202824612222</v>
       </c>
       <c r="R4">
-        <v>1124.834462863551</v>
+        <v>31.06982542151</v>
       </c>
       <c r="S4">
-        <v>0.00286441466574925</v>
+        <v>0.0006071956219072634</v>
       </c>
       <c r="T4">
-        <v>0.00286441466574925</v>
+        <v>0.0006071956219072634</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>311.028648</v>
       </c>
       <c r="I5">
-        <v>0.8912330150752564</v>
+        <v>0.9862688099613843</v>
       </c>
       <c r="J5">
-        <v>0.8912330150752563</v>
+        <v>0.9862688099613843</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>261.380203</v>
+        <v>7.487621999999999</v>
       </c>
       <c r="N5">
-        <v>784.140609</v>
+        <v>22.462866</v>
       </c>
       <c r="O5">
-        <v>0.6968677182772199</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="P5">
-        <v>0.69686771827722</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="Q5">
-        <v>27098.91038435185</v>
+        <v>776.2883157983518</v>
       </c>
       <c r="R5">
-        <v>243890.1934591666</v>
+        <v>6986.594842185167</v>
       </c>
       <c r="S5">
-        <v>0.6210715176688211</v>
+        <v>0.1365385785939356</v>
       </c>
       <c r="T5">
-        <v>0.6210715176688212</v>
+        <v>0.1365385785939356</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>311.028648</v>
       </c>
       <c r="I6">
-        <v>0.8912330150752564</v>
+        <v>0.9862688099613843</v>
       </c>
       <c r="J6">
-        <v>0.8912330150752563</v>
+        <v>0.9862688099613843</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>95.998284</v>
       </c>
       <c r="O6">
-        <v>0.08531391482826334</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="P6">
-        <v>0.08531391482826335</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="Q6">
         <v>3317.579609204447</v>
@@ -818,10 +818,10 @@
         <v>29858.21648284003</v>
       </c>
       <c r="S6">
-        <v>0.07603457754026677</v>
+        <v>0.5835172254874755</v>
       </c>
       <c r="T6">
-        <v>0.07603457754026677</v>
+        <v>0.5835172254874755</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>311.028648</v>
       </c>
       <c r="I7">
-        <v>0.8912330150752564</v>
+        <v>0.9862688099613843</v>
       </c>
       <c r="J7">
-        <v>0.8912330150752563</v>
+        <v>0.9862688099613843</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>81.69901900000001</v>
+        <v>14.59882166666667</v>
       </c>
       <c r="N7">
-        <v>245.097057</v>
+        <v>43.796465</v>
       </c>
       <c r="O7">
-        <v>0.2178183668945166</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="P7">
-        <v>0.2178183668945167</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="Q7">
-        <v>8470.245140832105</v>
+        <v>1513.550588458813</v>
       </c>
       <c r="R7">
-        <v>76232.20626748893</v>
+        <v>13621.95529612932</v>
       </c>
       <c r="S7">
-        <v>0.1941269198661685</v>
+        <v>0.2662130058799732</v>
       </c>
       <c r="T7">
-        <v>0.1941269198661685</v>
+        <v>0.2662130058799732</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.12297</v>
+        <v>1.206946333333333</v>
       </c>
       <c r="H8">
-        <v>33.36891</v>
+        <v>3.620839</v>
       </c>
       <c r="I8">
-        <v>0.09561651140596822</v>
+        <v>0.01148164516212593</v>
       </c>
       <c r="J8">
-        <v>0.09561651140596822</v>
+        <v>0.01148164516212593</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>261.380203</v>
+        <v>7.487621999999999</v>
       </c>
       <c r="N8">
-        <v>784.140609</v>
+        <v>22.462866</v>
       </c>
       <c r="O8">
-        <v>0.6968677182772199</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="P8">
-        <v>0.69686771827722</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="Q8">
-        <v>2907.32415656291</v>
+        <v>9.037157918286001</v>
       </c>
       <c r="R8">
-        <v>26165.91740906619</v>
+        <v>81.33442126457399</v>
       </c>
       <c r="S8">
-        <v>0.06663206013310485</v>
+        <v>0.001589513421212206</v>
       </c>
       <c r="T8">
-        <v>0.06663206013310485</v>
+        <v>0.001589513421212207</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.12297</v>
+        <v>1.206946333333333</v>
       </c>
       <c r="H9">
-        <v>33.36891</v>
+        <v>3.620839</v>
       </c>
       <c r="I9">
-        <v>0.09561651140596822</v>
+        <v>0.01148164516212593</v>
       </c>
       <c r="J9">
-        <v>0.09561651140596822</v>
+        <v>0.01148164516212593</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>95.998284</v>
       </c>
       <c r="O9">
-        <v>0.08531391482826334</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="P9">
-        <v>0.08531391482826335</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="Q9">
-        <v>355.92867766116</v>
+        <v>38.621592293364</v>
       </c>
       <c r="R9">
-        <v>3203.35809895044</v>
+        <v>347.594330640276</v>
       </c>
       <c r="S9">
-        <v>0.008157418910264443</v>
+        <v>0.006793013893745395</v>
       </c>
       <c r="T9">
-        <v>0.008157418910264443</v>
+        <v>0.006793013893745396</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.12297</v>
+        <v>1.206946333333333</v>
       </c>
       <c r="H10">
-        <v>33.36891</v>
+        <v>3.620839</v>
       </c>
       <c r="I10">
-        <v>0.09561651140596822</v>
+        <v>0.01148164516212593</v>
       </c>
       <c r="J10">
-        <v>0.09561651140596822</v>
+        <v>0.01148164516212593</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>81.69901900000001</v>
+        <v>14.59882166666667</v>
       </c>
       <c r="N10">
-        <v>245.097057</v>
+        <v>43.796465</v>
       </c>
       <c r="O10">
-        <v>0.2178183668945166</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="P10">
-        <v>0.2178183668945167</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="Q10">
-        <v>908.7357373664302</v>
+        <v>17.61999428157056</v>
       </c>
       <c r="R10">
-        <v>8178.62163629787</v>
+        <v>158.579948534135</v>
       </c>
       <c r="S10">
-        <v>0.02082703236259892</v>
+        <v>0.00309911784716833</v>
       </c>
       <c r="T10">
-        <v>0.02082703236259892</v>
+        <v>0.00309911784716833</v>
       </c>
     </row>
   </sheetData>
